--- a/ant-mis-web/src/main/webapp/deliverorder/importDeliverOrderTemplate.xlsx
+++ b/ant-mis-web/src/main/webapp/deliverorder/importDeliverOrderTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9777\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9777\IdeaProjects\ant\ant-mis-web\src\main\webapp\deliverorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>订单号</t>
   </si>
@@ -40,24 +40,6 @@
   </si>
   <si>
     <t>订单备注</t>
-  </si>
-  <si>
-    <t>这是备注</t>
-  </si>
-  <si>
-    <t>上海市浦东新区北蔡镇莲园路101号</t>
-  </si>
-  <si>
-    <t>上海市浦东新区北蔡镇莲园路100号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -481,52 +463,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>63866502757</v>
-      </c>
-      <c r="B2">
-        <v>17635724984</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>13611648602</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>63389017878</v>
-      </c>
-      <c r="B3">
-        <v>17637191333</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>18401291215</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ant-mis-web/src/main/webapp/deliverorder/importDeliverOrderTemplate.xlsx
+++ b/ant-mis-web/src/main/webapp/deliverorder/importDeliverOrderTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>订购数量</t>
   </si>
@@ -40,6 +34,22 @@
   </si>
   <si>
     <t>订单备注</t>
+  </si>
+  <si>
+    <t>原订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -423,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -435,32 +445,38 @@
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
